--- a/Data/EUDA/Tampon/statut_pro_deja_traite.xlsx
+++ b/Data/EUDA/Tampon/statut_pro_deja_traite.xlsx
@@ -441,42 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Occasionally employed.deja</t>
+          <t>Occasionally employed.deja.pro</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Regularly employed.deja</t>
+          <t>Regularly employed.deja.pro</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Student.deja</t>
+          <t>Student.deja.pro</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unemployed / discouraged.deja</t>
+          <t>Unemployed / discouraged.deja.pro</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Receiving social benefits / pensioners / house-makers / disable.deja</t>
+          <t>Receiving social benefits / pensioners / house-makers / disable.deja.pro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Other.deja</t>
+          <t>Other.deja.pro</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.deja</t>
+          <t>Not known / missing.deja.pro</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total.deja</t>
+          <t>Total.deja.pro</t>
         </is>
       </c>
     </row>
